--- a/data/trans_camb/P16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.197535575158349</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08066589067769955</v>
+        <v>0.08066589067769886</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.693442881132883</v>
+        <v>-1.512968259134767</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.573839115000176</v>
+        <v>-1.510414936051979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.772383794890898</v>
+        <v>-2.652302682105115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4669103860773861</v>
+        <v>-0.2987845790836073</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.101763283244841</v>
+        <v>-1.147834087314825</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.742358083220021</v>
+        <v>-2.484738837263929</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2329016757946231</v>
+        <v>-0.34965482219065</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6701997004587136</v>
+        <v>-0.5214067185804659</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.13604152312144</v>
+        <v>-1.863633987025124</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.11890198129895</v>
+        <v>3.268844190377926</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.211050353993934</v>
+        <v>3.300248841904161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.988023024327017</v>
+        <v>3.366421121829485</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.285219501766639</v>
+        <v>5.424591425036413</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.743455632826294</v>
+        <v>4.358799034150608</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.964806264412036</v>
+        <v>4.433549423478043</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.43198637679363</v>
+        <v>3.437411259922277</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.933371605444727</v>
+        <v>3.106773699663898</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.622508406368603</v>
+        <v>2.444644829819629</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.3335225278798997</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02246604804951411</v>
+        <v>0.02246604804951392</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4027911784749098</v>
+        <v>-0.3744149637092202</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.371591353116118</v>
+        <v>-0.3691597083780999</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7032817985322971</v>
+        <v>-0.6285446540155488</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1085348699656489</v>
+        <v>-0.0883574197597459</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2566792823645335</v>
+        <v>-0.2391524276246786</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6086283123811297</v>
+        <v>-0.5610732718975467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07473692536391488</v>
+        <v>-0.09649488920298724</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1621048701032657</v>
+        <v>-0.1254176326746614</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5236987855667095</v>
+        <v>-0.4476525219114853</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.39144917644843</v>
+        <v>1.355219966325706</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.518124411977157</v>
+        <v>1.426531899587861</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.166341493185855</v>
+        <v>1.401108109100286</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.988947761333009</v>
+        <v>2.043249489925474</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.930823459284915</v>
+        <v>1.60146492858451</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.42780206890298</v>
+        <v>1.604700420936448</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.16902715103617</v>
+        <v>1.207952176415004</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9956838051147713</v>
+        <v>1.066309740753459</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8909035654026564</v>
+        <v>0.8492772077807598</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3993133305007194</v>
+        <v>-0.5110068027274625</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8968026908495985</v>
+        <v>-0.8323974154626984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.05412751797264843</v>
+        <v>0.01117292866555332</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6610068867395321</v>
+        <v>-0.6360197221592933</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.69562720667686</v>
+        <v>-0.6560292977809982</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3311413525403949</v>
+        <v>-0.4274594363578013</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04309361766106417</v>
+        <v>0.1811904677831073</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.04589437450671131</v>
+        <v>-0.01507947935817359</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8380912809389192</v>
+        <v>0.8280372251905673</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.74103719124754</v>
+        <v>3.442984457178885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.00034339160458</v>
+        <v>2.948711264961464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.781475001445238</v>
+        <v>5.741527226180869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.574672742281072</v>
+        <v>4.502706259229869</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.686583704170748</v>
+        <v>4.556786021776372</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.524874623188439</v>
+        <v>5.355964172727081</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.322621129673817</v>
+        <v>3.316587914339324</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.138979121101377</v>
+        <v>3.264158477537507</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.754609054773963</v>
+        <v>4.7556619871704</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1449580882364262</v>
+        <v>-0.1787391965064724</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2995841141244029</v>
+        <v>-0.2651633134819708</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07949878756348709</v>
+        <v>-0.06752373917982867</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1543044551144183</v>
+        <v>-0.1488259932767283</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1322708048695062</v>
+        <v>-0.1282781959712395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06933462328037696</v>
+        <v>-0.1041158261875109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005625321482927069</v>
+        <v>0.02582747103138946</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.007089345055674444</v>
+        <v>-0.02846425961536802</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1680097017723579</v>
+        <v>0.1538864278731127</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.124338364396104</v>
+        <v>2.024894875841896</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.768933360431064</v>
+        <v>1.65556970917684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.217986096298822</v>
+        <v>3.343663714692785</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.402028865737183</v>
+        <v>1.510379583411543</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.557566211610378</v>
+        <v>1.590894966860998</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.780729623918295</v>
+        <v>1.705675912682089</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.290995146042246</v>
+        <v>1.245022881204926</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.210399535195217</v>
+        <v>1.173414302704506</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.818841272628778</v>
+        <v>1.726645184943995</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.807767887985836</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8113492459021286</v>
+        <v>0.8113492459021279</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.695209611948589</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.30592926971201</v>
+        <v>0.1697406635112984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5350651410934812</v>
+        <v>-0.5022140572651201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.02892539910925214</v>
+        <v>0.1077896907008746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8376331038408278</v>
+        <v>0.8880783331693697</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3048954712147678</v>
+        <v>0.480775563510086</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.273809855009971</v>
+        <v>-1.21465393126857</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8895276113356261</v>
+        <v>1.086956807611522</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.303872845405736</v>
+        <v>0.4327536630949639</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2006148375767941</v>
+        <v>-0.1131384731248303</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.989719805027437</v>
+        <v>4.17123627868251</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.112897562154992</v>
+        <v>3.059940814220897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.702469183921252</v>
+        <v>3.920050658309296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.074475845518303</v>
+        <v>6.018878371276514</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.35570332098345</v>
+        <v>5.461969905039039</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.910962170188687</v>
+        <v>2.915481757304829</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.318255289531097</v>
+        <v>4.178887275437146</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.595337151401017</v>
+        <v>3.580174529844597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.816751178547931</v>
+        <v>2.718906575045095</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.6821976658066393</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1971318797671217</v>
+        <v>0.1971318797671216</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.8864046400299177</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04072479267537956</v>
+        <v>-0.01172673862961117</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2572170692668856</v>
+        <v>-0.2401266526035563</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05894700762099309</v>
+        <v>0.008905217506336209</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1048561895227615</v>
+        <v>0.1823156850353522</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02637550964802234</v>
+        <v>0.08988660991273953</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2509633709594651</v>
+        <v>-0.2451050502138952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2007082596213213</v>
+        <v>0.284013218071052</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04020311834649547</v>
+        <v>0.09315860161997946</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.07597407515497127</v>
+        <v>-0.03646955361649057</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.421208321912882</v>
+        <v>3.473542236558088</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.671901932121591</v>
+        <v>2.399185493941894</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.201604368655567</v>
+        <v>3.328151838875632</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.917684074301552</v>
+        <v>2.170954351310434</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.706075326063273</v>
+        <v>1.816191044447424</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9539745621579253</v>
+        <v>1.011230204645136</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.804588972344612</v>
+        <v>1.792997091210114</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.457854894259364</v>
+        <v>1.430905245466267</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.181662425874248</v>
+        <v>1.099593995137147</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.1341955297325243</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.701049582208028</v>
+        <v>2.701049582208027</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.452537393409779</v>
@@ -1297,7 +1297,7 @@
         <v>2.117480778829007</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.338749345405499</v>
+        <v>3.338749345405498</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.313019503980236</v>
@@ -1306,7 +1306,7 @@
         <v>0.9971981780699027</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.042552790711469</v>
+        <v>3.04255279071147</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.963004549542448</v>
+        <v>-1.718641631640892</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.119127642432526</v>
+        <v>-2.2557356010646</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.508067196933515</v>
+        <v>0.6012911769760814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1457420196426789</v>
+        <v>-0.2215083651270774</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2804806566578973</v>
+        <v>-0.01060236929473708</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.089844010564885</v>
+        <v>1.00948377556378</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4609348142207744</v>
+        <v>-0.2911792257456247</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5036263779912581</v>
+        <v>-0.7063531978568112</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.4217449299909</v>
+        <v>1.516092061504706</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.013053271795228</v>
+        <v>2.190407125450717</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.573712494259858</v>
+        <v>1.442063910763389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.093959894588465</v>
+        <v>5.048530598518471</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.884646442361705</v>
+        <v>5.133747370804301</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.411589134854245</v>
+        <v>4.595516387147409</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.287074270295734</v>
+        <v>5.19212422174196</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.884596161113556</v>
+        <v>3.050208840212417</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.464582554075375</v>
+        <v>2.51106289150944</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.691638574023336</v>
+        <v>4.637735438712684</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.6812443951894094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.074155808751962</v>
+        <v>1.074155808751961</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5057744542572139</v>
@@ -1411,7 +1411,7 @@
         <v>0.3841202379482587</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.171989808686055</v>
+        <v>1.171989808686056</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6389136895197376</v>
+        <v>-0.5951714796822243</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6653630425724474</v>
+        <v>-0.7163601308073961</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0637270065094996</v>
+        <v>0.06247455797488823</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09827785499625145</v>
+        <v>-0.09443532091974466</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09714061417677987</v>
+        <v>-0.05287511919605874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2459525133514565</v>
+        <v>0.1954073888917396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.136790433801932</v>
+        <v>-0.09853554828517953</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1700763206178226</v>
+        <v>-0.2332298192743028</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3611537414759426</v>
+        <v>0.4145400616380943</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.991608348857197</v>
+        <v>2.133729013446636</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.749025399584877</v>
+        <v>1.395190928330442</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.961690995311112</v>
+        <v>4.750157970624393</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.47409329708735</v>
+        <v>2.382932778828634</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.030701160135752</v>
+        <v>2.110068530292184</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.484903350123219</v>
+        <v>2.493774275811988</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.519338727614749</v>
+        <v>1.669317489035858</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.321626043402541</v>
+        <v>1.37032022593527</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.614494068399606</v>
+        <v>2.589557326532181</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.43058995302644</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.8289371033690242</v>
+        <v>-0.8289371033690245</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.80297843953169</v>
@@ -1511,7 +1511,7 @@
         <v>0.2557390402502947</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.6786681694805085</v>
+        <v>-0.6786681694805077</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.214361688076046</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.805072915210372</v>
+        <v>-2.813545051474941</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.351443340847033</v>
+        <v>-1.207933772844908</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.208562894441194</v>
+        <v>-3.153708453205545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.894304659601769</v>
+        <v>-4.757907441145007</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.210248766081333</v>
+        <v>-3.082564131073888</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.713630865374675</v>
+        <v>-3.617836269467222</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.005619686857592</v>
+        <v>-3.139260228315806</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.215228483291665</v>
+        <v>-1.226240386993775</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.444876457730679</v>
+        <v>-2.700583750912077</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.442511559539378</v>
+        <v>1.49971520065563</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.709298453328755</v>
+        <v>3.697256913645296</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.053755734038616</v>
+        <v>0.8795278974827547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.030867116479558</v>
+        <v>0.9082634374964599</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.240265391640315</v>
+        <v>3.217331566956593</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.499997920959655</v>
+        <v>1.64268558203708</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5333819278826913</v>
+        <v>0.4493764904484115</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.890573808565093</v>
+        <v>2.758554155381841</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.8154369795498334</v>
+        <v>0.7739390893855286</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.5548047420427948</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3214745321197242</v>
+        <v>-0.3214745321197244</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.3596552112766963</v>
@@ -1616,7 +1616,7 @@
         <v>0.05101440845671447</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1353796243646045</v>
+        <v>-0.1353796243646044</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3176955687444145</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7277775811944454</v>
+        <v>-0.7439867630299453</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3343352504247336</v>
+        <v>-0.3452441398678157</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7401200529233382</v>
+        <v>-0.7422882842045749</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.702281898519985</v>
+        <v>-0.6910952985409319</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.461412171235773</v>
+        <v>-0.442893760398746</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5226109070346899</v>
+        <v>-0.5107685337172668</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6068653118361391</v>
+        <v>-0.6359344016725595</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2651497620791382</v>
+        <v>-0.2749844587593805</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4817011464109778</v>
+        <v>-0.5060741811434218</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.154952058424055</v>
+        <v>1.267034379796629</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.680769440553172</v>
+        <v>3.016615264225814</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.181707954164787</v>
+        <v>0.7779162498120473</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3440792627028325</v>
+        <v>0.3253226785968392</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9370273186296106</v>
+        <v>0.919985456990949</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4557648301773679</v>
+        <v>0.4944884988792644</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.212883972731578</v>
+        <v>0.1795217514470701</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9957752469311396</v>
+        <v>0.9739320031482717</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3161092321913678</v>
+        <v>0.3145066249737618</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.322456771978624</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.3681452918813395</v>
+        <v>-0.3681452918813402</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.8391978040181581</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.3446587370604198</v>
+        <v>-0.2748151323487179</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.352876159164422</v>
+        <v>-2.384447106201258</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.042882325690634</v>
+        <v>-2.031066139857182</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.336727455147467</v>
+        <v>-3.313194632812096</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.008840614176949</v>
+        <v>-4.244629113437039</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.483823555290393</v>
+        <v>-3.210144116264222</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.243913558394307</v>
+        <v>-1.025749721364448</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.630193880755932</v>
+        <v>-2.648442413520149</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.932417095978858</v>
+        <v>-2.046545074494984</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.622545227868764</v>
+        <v>5.35458859535968</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.686459636752233</v>
+        <v>1.456350270576705</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.862200643217277</v>
+        <v>1.798228130669711</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.655313280190472</v>
+        <v>2.270539652373597</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.342259001071902</v>
+        <v>1.529869702753484</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.969646859268761</v>
+        <v>1.835272810423338</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.985745611815244</v>
+        <v>3.062057995732571</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.9513353196450464</v>
+        <v>0.7356133582564734</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.465481251646978</v>
+        <v>1.217570732997192</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.2875041720125612</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.08003536264123572</v>
+        <v>-0.08003536264123587</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2554490197138227</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2806124177590069</v>
+        <v>-0.3670472795376654</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8417495329462139</v>
+        <v>-0.8399849671883088</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6812368201229734</v>
+        <v>-0.7029604368655302</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5447340992474167</v>
+        <v>-0.5694349826097764</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6588528391407259</v>
+        <v>-0.6943600670602005</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5077760148217323</v>
+        <v>-0.4907498281107203</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3305976118718662</v>
+        <v>-0.26049448666094</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6408920268014342</v>
+        <v>-0.623236189700596</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4356297058719832</v>
+        <v>-0.4549153943972015</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>6.920556294290765</v>
+        <v>6.523851208290793</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.648072547592434</v>
+        <v>3.049995368257238</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.828343803580028</v>
+        <v>3.144037184423425</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.877156817486538</v>
+        <v>0.7467947507143715</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5241424227369735</v>
+        <v>0.5500258065224228</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6606702409069455</v>
+        <v>0.6141890074788293</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.315299445647228</v>
+        <v>1.333463835820814</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4193360453093416</v>
+        <v>0.3281717502066092</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6289071705815052</v>
+        <v>0.5783142027184172</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.8414033172050722</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.08918476240455941</v>
+        <v>-0.08918476240455976</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.354315228546391</v>
@@ -1939,7 +1939,7 @@
         <v>1.60427681934683</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.5909153644018659</v>
+        <v>0.5909153644018654</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.419912747230851</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.994616954310853</v>
+        <v>-1.666179330765291</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.446620840864971</v>
+        <v>-2.334897758999602</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.095654220964771</v>
+        <v>-3.184550149904125</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.59279654405653</v>
+        <v>-1.423536696102603</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.228661504535754</v>
+        <v>-1.214927673255723</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.235917318175452</v>
+        <v>-2.077756949082695</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.6731838417866602</v>
+        <v>-0.7812325917600302</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.6754154701962088</v>
+        <v>-0.7494222626384497</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.816759064752961</v>
+        <v>-1.415894877885256</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.484470076339939</v>
+        <v>5.170475977990439</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.406451476764365</v>
+        <v>3.542242493504816</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.100726352111925</v>
+        <v>2.098322930228873</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.801816417361271</v>
+        <v>3.948649895993836</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.357097617259459</v>
+        <v>4.589051025999926</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.45840087101217</v>
+        <v>2.499406806480171</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.513376044929792</v>
+        <v>3.498973638240165</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.412722183922777</v>
+        <v>3.438515167428103</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.830014372919698</v>
+        <v>1.800550054643467</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.3530830021804457</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.03742512421171824</v>
+        <v>-0.03742512421171838</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5830291581567744</v>
@@ -2044,7 +2044,7 @@
         <v>0.6906369682028356</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2543875164269572</v>
+        <v>0.2543875164269571</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.6052225735232784</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6189956970188779</v>
+        <v>-0.6398708617045185</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6191224065282993</v>
+        <v>-0.6459655225982943</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7287876257574505</v>
+        <v>-0.735360677519897</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4919474247037477</v>
+        <v>-0.4192992919303515</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.457826905373249</v>
+        <v>-0.459741272882049</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5173248409339763</v>
+        <v>-0.5115941037164526</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2786576025685195</v>
+        <v>-0.2809523833319696</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2694918279471215</v>
+        <v>-0.260312184444414</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4699333840204907</v>
+        <v>-0.4247155477502432</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.698431761905777</v>
+        <v>5.381548924332368</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.020770100608693</v>
+        <v>3.340265219401502</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.24147563456802</v>
+        <v>2.295952813831377</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>4.102840475666754</v>
+        <v>3.780086825695988</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4.514192167862422</v>
+        <v>4.309449606285516</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.305302227082736</v>
+        <v>2.554093853806359</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.529525246399628</v>
+        <v>2.737267219259054</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.48998533718915</v>
+        <v>2.600731028224537</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.425928668390703</v>
+        <v>1.42865864532814</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>1.458951067232117</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.040170439171232</v>
+        <v>1.040170439171231</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.314349975998779</v>
@@ -2162,7 +2162,7 @@
         <v>1.084038531993588</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.02867322268313</v>
+        <v>1.028673222683128</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1403879236943159</v>
+        <v>0.2376024625719523</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.2186943623373472</v>
+        <v>-0.0843783868037607</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.1875799238595241</v>
+        <v>0.118571843097571</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.5341045535772824</v>
+        <v>0.5450875976747042</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.3722442939597923</v>
+        <v>0.3574204229552996</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.1163182888002122</v>
+        <v>0.09879561596964768</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.6450342824310987</v>
+        <v>0.6462170749775511</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.3944895976862208</v>
+        <v>0.3926807447935868</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.41505280310138</v>
+        <v>0.3487287603220869</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.84877008134343</v>
+        <v>1.885204181752329</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.557569078981915</v>
+        <v>1.533871664697133</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.950051038599952</v>
+        <v>1.896694438440768</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.63256573292135</v>
+        <v>2.669535223020862</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.450175911162669</v>
+        <v>2.500526361557207</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.034920182548018</v>
+        <v>2.07589312162768</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.992593419897673</v>
+        <v>2.00442402908772</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.804244698115951</v>
+        <v>1.748247658813418</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.650245146319572</v>
+        <v>1.64651709450418</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.3727103595528757</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2657267314079854</v>
+        <v>0.2657267314079853</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.4155381385404722</v>
@@ -2267,7 +2267,7 @@
         <v>0.3427240551729427</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3252200433110316</v>
+        <v>0.3252200433110312</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.0329047356484761</v>
+        <v>0.07895440623826105</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.08113437869481292</v>
+        <v>-0.03531990606419048</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.06781631221945468</v>
+        <v>0.03901802543959845</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1242182192715751</v>
+        <v>0.1194950930201816</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.0884271217674957</v>
+        <v>0.07748732269141169</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02273223254854245</v>
+        <v>0.02255032937440867</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1802110805669028</v>
+        <v>0.1760550819380063</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1126489038113126</v>
+        <v>0.1044831477075338</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1209653891613039</v>
+        <v>0.09960460774754572</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.9000488115342049</v>
+        <v>0.9330157807940362</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.7595518196971653</v>
+        <v>0.7735909006309354</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9830591730440662</v>
+        <v>0.9052495955117041</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7613486408920279</v>
+        <v>0.7742876149596699</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7220055121404992</v>
+        <v>0.7408822512954366</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5866196450150273</v>
+        <v>0.6204666424302541</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7045209284200571</v>
+        <v>0.6801838633463699</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6288070488915284</v>
+        <v>0.6108411532069203</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5622124867555109</v>
+        <v>0.5919247340234938</v>
       </c>
     </row>
     <row r="52">
